--- a/Doc/testcase_soften_sprint2.xlsx
+++ b/Doc/testcase_soften_sprint2.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-office\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C8AD56-25B4-4EF5-B82C-1B7D03B46D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513B3262-F318-4C58-B28F-70AAF65473F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E07F29E6-C298-49ED-AB1F-E6FB68B76F00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E07F29E6-C298-49ED-AB1F-E6FB68B76F00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test case" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="129">
   <si>
     <t>Test Case Design and Test Results</t>
   </si>
@@ -93,12 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">แสดง popup ลบข้อมูล </t>
-  </si>
-  <si>
-    <t>1.type</t>
-  </si>
-  <si>
-    <t>edit delete insert</t>
   </si>
   <si>
     <t>นายอาชาญนนท์ แซ่ชื้อ และ นายชนกันต์ ทิพย์โภชนา</t>
@@ -502,6 +488,18 @@
   </si>
   <si>
     <t>ไม่มีข้อความแสดงว่า ข้อมูลซ้ำ แก้ไขข้อมูลไม่สำเร็จ และอยู่ที่แก้ไขรายการอุปกรณ์</t>
+  </si>
+  <si>
+    <t>มีข้อความแสดงว่า เพิ่มรายละเอียดสำเร็จ กรุณากรอกข้อมูลในช่องว่าง และอยู่ที่หน้าเพิ่มรายละเอียดอุปกรณ์</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -659,14 +657,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -715,9 +710,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -745,6 +737,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -766,28 +776,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F561436D-DFF3-4A66-B3BC-CCB595D1FCFB}"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -803,7 +804,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1101,337 +1102,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB69DA8-38BE-4CE0-8085-6CBABE107251}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="74.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="78.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="12"/>
+    <col min="1" max="1" width="33.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="74.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="78.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="38">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E4" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>30</v>
+      <c r="A7" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="39"/>
-    </row>
-    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1439,122 +1440,122 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="41"/>
-    </row>
-    <row r="29" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="41"/>
-    </row>
-    <row r="31" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="39"/>
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="17"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1562,58 +1563,58 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="52.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" ht="52.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="39"/>
-    </row>
-    <row r="36" spans="1:5" ht="52.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="39"/>
-    </row>
-    <row r="37" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1621,73 +1622,73 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="1:5" ht="52.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="36"/>
-    </row>
-    <row r="41" spans="1:5" ht="52.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="37"/>
-    </row>
-    <row r="42" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="37"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -1695,118 +1696,118 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="27"/>
+    </row>
+    <row r="47" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="36"/>
-    </row>
-    <row r="47" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="37"/>
-    </row>
-    <row r="48" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="37"/>
-    </row>
-    <row r="49" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="37"/>
-    </row>
-    <row r="50" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="C51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="41"/>
-    </row>
-    <row r="51" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="38"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -1814,122 +1815,122 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="31"/>
+    </row>
+    <row r="56" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="40"/>
-    </row>
-    <row r="56" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" ht="127.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="41"/>
-    </row>
-    <row r="57" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="E59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="41"/>
-    </row>
-    <row r="58" spans="1:5" ht="127.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="41"/>
-    </row>
-    <row r="59" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="41"/>
-    </row>
-    <row r="60" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="39"/>
+      <c r="D60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="30"/>
     </row>
     <row r="61" spans="1:5" ht="80.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="17"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+      <c r="A62" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -1937,76 +1938,76 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="29"/>
+    </row>
+    <row r="66" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="16"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="38"/>
-    </row>
-    <row r="65" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="38"/>
-    </row>
-    <row r="66" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="17"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:5" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="17"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="17"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -2014,73 +2015,73 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="27"/>
+    </row>
+    <row r="72" spans="1:5" ht="52.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="28"/>
+    </row>
+    <row r="73" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="36"/>
-    </row>
-    <row r="72" spans="1:5" ht="52.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="37"/>
-    </row>
-    <row r="73" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E73" s="41"/>
+      <c r="D73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="32"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="6"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="18" t="s">
-        <v>108</v>
+      <c r="A76" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -2088,287 +2089,301 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="27"/>
+    </row>
+    <row r="79" spans="1:5" ht="157.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="28"/>
+    </row>
+    <row r="80" spans="1:5" ht="157.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" s="32"/>
+    </row>
+    <row r="81" spans="1:5" ht="157.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-    </row>
-    <row r="80" spans="1:5" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-    </row>
-    <row r="81" spans="1:5" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="D81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="32"/>
+    </row>
+    <row r="82" spans="1:5" ht="157.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="28"/>
+    </row>
+    <row r="83" spans="1:5" s="19" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-    </row>
-    <row r="82" spans="1:5" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-    </row>
-    <row r="83" spans="1:5" s="21" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-    </row>
-    <row r="84" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-    </row>
-    <row r="85" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="C83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="29"/>
+    </row>
+    <row r="84" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="21" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
+    <row r="87" spans="1:5" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" s="30"/>
+    </row>
+    <row r="88" spans="1:5" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E87" s="39"/>
-    </row>
-    <row r="88" spans="1:5" s="21" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" s="39"/>
-    </row>
-    <row r="89" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-    </row>
-    <row r="90" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-    </row>
-    <row r="95" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-    </row>
-    <row r="96" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-    </row>
-    <row r="97" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-    </row>
-    <row r="98" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-    </row>
-    <row r="99" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-    </row>
-    <row r="100" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="D88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="30"/>
+    </row>
+    <row r="89" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="40">
+        <v>21</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="41">
+        <v>25</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+    </row>
+    <row r="97" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+    </row>
+    <row r="98" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+    </row>
+    <row r="99" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+    </row>
+    <row r="100" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-    </row>
-    <row r="120" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-    </row>
-    <row r="121" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-    </row>
-    <row r="122" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-    </row>
-    <row r="123" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-    </row>
-    <row r="124" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-    </row>
-    <row r="129" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
+    <row r="119" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+    </row>
+    <row r="120" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+    </row>
+    <row r="121" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+    </row>
+    <row r="122" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+    </row>
+    <row r="123" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+    </row>
+    <row r="124" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+    </row>
+    <row r="129" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2387,6 +2402,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E83AF6670FC35A4BB54FA1E8FC2BEA19" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c1b8510703e4df771a6a6821208b62b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="88d32f1c-4ce9-4904-9ed7-36ac2ad95d14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a60bb0c5c1b70bf9345a29bda221ea8" ns3:_="">
     <xsd:import namespace="88d32f1c-4ce9-4904-9ed7-36ac2ad95d14"/>
@@ -2532,12 +2553,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2548,6 +2563,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9EEBD11-A493-40CA-963F-B4F21DFE2A0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="88d32f1c-4ce9-4904-9ed7-36ac2ad95d14"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AE16428-3C79-42E9-8AF7-C94D09608E00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2565,22 +2596,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9EEBD11-A493-40CA-963F-B4F21DFE2A0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="88d32f1c-4ce9-4904-9ed7-36ac2ad95d14"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AB1EDCB-FBE4-4415-BFED-1E84F52D897C}">
   <ds:schemaRefs>
